--- a/HMDA 2018 Schema.xlsx
+++ b/HMDA 2018 Schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Artificial Intelligence\information_article\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\I\article-information-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A5C8CC-7C01-45B6-BC1A-922722A3ECA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95B841-CB8A-4F13-9A49-C7D7895C3A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{67CDCFA7-0C39-4016-B785-5097AAC05B99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{67CDCFA7-0C39-4016-B785-5097AAC05B99}"/>
   </bookViews>
   <sheets>
     <sheet name="LAR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Codes with Descriptions" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LAR!$A$1:$E$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LAR!$A$1:$F$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="509">
   <si>
     <t>Field</t>
   </si>
@@ -2441,6 +2441,18 @@
   </si>
   <si>
     <t>We are only using accepted applications, so I would think (we need to verify) that this would not have informative value.</t>
+  </si>
+  <si>
+    <t>This is the dependent variable</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -2557,7 +2569,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2620,6 +2632,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2940,11 +2955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AB491E-5D1B-4A2B-9EDF-E2EC15A37AFF}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,10 +2968,11 @@
     <col min="2" max="2" width="11.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="19" customWidth="1"/>
     <col min="4" max="4" width="74.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="217.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="217.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>498</v>
       </c>
@@ -2969,11 +2985,12 @@
       <c r="D1" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -2986,11 +3003,11 @@
       <c r="D2" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
@@ -3003,11 +3020,11 @@
       <c r="D3" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
@@ -3018,10 +3035,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
@@ -3032,10 +3052,13 @@
         <v>6</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -3046,10 +3069,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
@@ -3060,10 +3086,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
@@ -3074,10 +3103,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3087,11 +3119,11 @@
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
@@ -3101,11 +3133,11 @@
       <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
@@ -3115,11 +3147,11 @@
       <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -3129,11 +3161,11 @@
       <c r="C12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>16</v>
       </c>
@@ -3143,11 +3175,11 @@
       <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
@@ -3160,11 +3192,11 @@
       <c r="D14" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>18</v>
       </c>
@@ -3174,11 +3206,11 @@
       <c r="C15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>19</v>
       </c>
@@ -3188,11 +3220,11 @@
       <c r="C16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -3202,11 +3234,11 @@
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="F17" s="21" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>21</v>
       </c>
@@ -3216,11 +3248,11 @@
       <c r="C18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="F18" s="21" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>22</v>
       </c>
@@ -3230,11 +3262,11 @@
       <c r="C19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>23</v>
       </c>
@@ -3244,11 +3276,11 @@
       <c r="C20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="21" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>24</v>
       </c>
@@ -3258,11 +3290,11 @@
       <c r="C21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>25</v>
       </c>
@@ -3272,11 +3304,11 @@
       <c r="C22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="21" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>26</v>
       </c>
@@ -3284,11 +3316,11 @@
       <c r="C23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="21" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>27</v>
       </c>
@@ -3296,11 +3328,11 @@
       <c r="C24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="F24" s="21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>28</v>
       </c>
@@ -3308,11 +3340,11 @@
       <c r="C25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="F25" s="21" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>29</v>
       </c>
@@ -3320,11 +3352,11 @@
       <c r="C26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="F26" s="21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>30</v>
       </c>
@@ -3334,11 +3366,15 @@
       <c r="C27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>31</v>
       </c>
@@ -3346,11 +3382,11 @@
       <c r="C28" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="21" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>32</v>
       </c>
@@ -3358,11 +3394,11 @@
       <c r="C29" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>33</v>
       </c>
@@ -3370,11 +3406,11 @@
       <c r="C30" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="21" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>34</v>
       </c>
@@ -3382,11 +3418,11 @@
       <c r="C31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="21" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
@@ -3394,11 +3430,11 @@
       <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="F32" s="21" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>36</v>
       </c>
@@ -3406,11 +3442,11 @@
       <c r="C33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="21" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>37</v>
       </c>
@@ -3418,11 +3454,11 @@
       <c r="C34" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="21" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>38</v>
       </c>
@@ -3430,11 +3466,11 @@
       <c r="C35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="F35" s="21" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>39</v>
       </c>
@@ -3444,11 +3480,11 @@
       <c r="C36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="F36" s="21" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>40</v>
       </c>
@@ -3458,11 +3494,11 @@
       <c r="C37" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="21" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>41</v>
       </c>
@@ -3472,11 +3508,11 @@
       <c r="C38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="F38" s="21" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>42</v>
       </c>
@@ -3486,11 +3522,11 @@
       <c r="C39" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F39" s="21" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>43</v>
       </c>
@@ -3498,11 +3534,11 @@
       <c r="C40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="F40" s="21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>44</v>
       </c>
@@ -3512,11 +3548,11 @@
       <c r="C41" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="F41" s="21" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>45</v>
       </c>
@@ -3526,11 +3562,11 @@
       <c r="C42" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="F42" s="21" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>46</v>
       </c>
@@ -3540,11 +3576,11 @@
       <c r="C43" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="F43" s="21" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>47</v>
       </c>
@@ -3554,11 +3590,11 @@
       <c r="C44" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="F44" s="21" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>48</v>
       </c>
@@ -3568,11 +3604,11 @@
       <c r="C45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="F45" s="21" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>49</v>
       </c>
@@ -3582,11 +3618,11 @@
       <c r="C46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="F46" s="21" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>50</v>
       </c>
@@ -3594,11 +3630,11 @@
       <c r="C47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="F47" s="21" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>51</v>
       </c>
@@ -3606,11 +3642,11 @@
       <c r="C48" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="F48" s="21" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>52</v>
       </c>
@@ -3623,11 +3659,11 @@
       <c r="D49" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="F49" s="21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>53</v>
       </c>
@@ -3640,11 +3676,11 @@
       <c r="D50" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="F50" s="21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>54</v>
       </c>
@@ -3654,11 +3690,11 @@
       <c r="C51" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="F51" s="21" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>55</v>
       </c>
@@ -3668,11 +3704,11 @@
       <c r="C52" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="F52" s="21" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>56</v>
       </c>
@@ -3682,11 +3718,11 @@
       <c r="C53" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="F53" s="21" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>57</v>
       </c>
@@ -3696,11 +3732,11 @@
       <c r="C54" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="F54" s="21" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -3710,11 +3746,11 @@
       <c r="C55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="F55" s="21" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>59</v>
       </c>
@@ -3724,11 +3760,11 @@
       <c r="C56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="F56" s="21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>60</v>
       </c>
@@ -3738,11 +3774,11 @@
       <c r="C57" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="F57" s="21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>61</v>
       </c>
@@ -3752,11 +3788,11 @@
       <c r="C58" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="F58" s="21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>62</v>
       </c>
@@ -3766,11 +3802,11 @@
       <c r="C59" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="F59" s="21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>63</v>
       </c>
@@ -3780,11 +3816,11 @@
       <c r="C60" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="F60" s="21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>64</v>
       </c>
@@ -3794,11 +3830,11 @@
       <c r="C61" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="F61" s="21" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>65</v>
       </c>
@@ -3808,11 +3844,11 @@
       <c r="C62" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="F62" s="21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>66</v>
       </c>
@@ -3822,11 +3858,11 @@
       <c r="C63" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="F63" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>67</v>
       </c>
@@ -3836,11 +3872,11 @@
       <c r="C64" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="F64" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>68</v>
       </c>
@@ -3850,11 +3886,11 @@
       <c r="C65" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="F65" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>69</v>
       </c>
@@ -3864,11 +3900,11 @@
       <c r="C66" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="F66" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>70</v>
       </c>
@@ -3878,11 +3914,11 @@
       <c r="C67" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="F67" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>71</v>
       </c>
@@ -3892,11 +3928,11 @@
       <c r="C68" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="F68" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>72</v>
       </c>
@@ -3906,11 +3942,11 @@
       <c r="C69" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="F69" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>73</v>
       </c>
@@ -3920,11 +3956,11 @@
       <c r="C70" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="F70" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>74</v>
       </c>
@@ -3934,11 +3970,11 @@
       <c r="C71" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="F71" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>75</v>
       </c>
@@ -3948,11 +3984,11 @@
       <c r="C72" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="F72" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>76</v>
       </c>
@@ -3962,11 +3998,11 @@
       <c r="C73" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="F73" s="21" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>77</v>
       </c>
@@ -3976,11 +4012,11 @@
       <c r="C74" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="F74" s="21" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>78</v>
       </c>
@@ -3990,11 +4026,11 @@
       <c r="C75" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="F75" s="21" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>79</v>
       </c>
@@ -4004,11 +4040,11 @@
       <c r="C76" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="F76" s="21" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>80</v>
       </c>
@@ -4018,11 +4054,11 @@
       <c r="C77" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="F77" s="21" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>81</v>
       </c>
@@ -4032,11 +4068,11 @@
       <c r="C78" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="F78" s="21" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>82</v>
       </c>
@@ -4044,11 +4080,11 @@
       <c r="C79" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="F79" s="21" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>83</v>
       </c>
@@ -4056,11 +4092,11 @@
       <c r="C80" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="F80" s="21" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>84</v>
       </c>
@@ -4068,11 +4104,11 @@
       <c r="C81" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="F81" s="21" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>85</v>
       </c>
@@ -4080,11 +4116,11 @@
       <c r="C82" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="F82" s="21" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>86</v>
       </c>
@@ -4094,11 +4130,11 @@
       <c r="C83" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="F83" s="21" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>87</v>
       </c>
@@ -4108,11 +4144,11 @@
       <c r="C84" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="F84" s="21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>88</v>
       </c>
@@ -4122,11 +4158,11 @@
       <c r="C85" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="F85" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>89</v>
       </c>
@@ -4136,11 +4172,11 @@
       <c r="C86" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="F86" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>90</v>
       </c>
@@ -4150,11 +4186,11 @@
       <c r="C87" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="F87" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>91</v>
       </c>
@@ -4164,11 +4200,11 @@
       <c r="C88" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="F88" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>92</v>
       </c>
@@ -4178,11 +4214,11 @@
       <c r="C89" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="F89" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>93</v>
       </c>
@@ -4195,11 +4231,11 @@
       <c r="D90" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="F90" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>94</v>
       </c>
@@ -4212,11 +4248,11 @@
       <c r="D91" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="F91" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>95</v>
       </c>
@@ -4229,11 +4265,11 @@
       <c r="D92" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="F92" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>96</v>
       </c>
@@ -4246,11 +4282,11 @@
       <c r="D93" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="F93" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
         <v>97</v>
       </c>
@@ -4258,11 +4294,11 @@
       <c r="C94" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="F94" s="21" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>98</v>
       </c>
@@ -4270,11 +4306,11 @@
       <c r="C95" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="F95" s="21" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>99</v>
       </c>
@@ -4282,11 +4318,11 @@
       <c r="C96" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="F96" s="21" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
         <v>100</v>
       </c>
@@ -4294,11 +4330,11 @@
       <c r="C97" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="F97" s="21" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
         <v>101</v>
       </c>
@@ -4306,11 +4342,11 @@
       <c r="C98" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="F98" s="21" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
         <v>102</v>
       </c>
@@ -4318,11 +4354,11 @@
       <c r="C99" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="F99" s="21" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>103</v>
       </c>
@@ -4330,13 +4366,14 @@
       <c r="C100" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="21" t="s">
+      <c r="F100" s="21" t="s">
         <v>496</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E100" xr:uid="{10DFDE45-7106-4D6D-B935-288B4ED872BD}"/>
+  <autoFilter ref="A1:F100" xr:uid="{10DFDE45-7106-4D6D-B935-288B4ED872BD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9553,1423 +9590,1542 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3328BF7-43F6-440F-A70E-0E5EF7370666}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="225.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="225.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>421</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>78</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>63</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>65</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>84</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>86</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>87</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>88</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>37</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>81</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>56</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>57</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>73</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>67</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>68</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>69</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>70</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>71</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>75</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>77</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>40</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>89</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>90</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>92</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>30</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="5"/>
+      <c r="D60" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>95</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="5"/>
+      <c r="D61" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="5"/>
+      <c r="D62" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>46</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="5"/>
+      <c r="D63" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>36</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="5"/>
+      <c r="D65" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="5"/>
+      <c r="D66" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>34</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="5"/>
+      <c r="D67" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="5"/>
+      <c r="D68" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>31</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="5"/>
+      <c r="D69" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="5"/>
+      <c r="D70" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>22</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="5"/>
+      <c r="D71" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="5"/>
+      <c r="D72" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>32</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="5"/>
+      <c r="D73" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>23</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="5"/>
+      <c r="D74" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>43</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="5"/>
+      <c r="D76" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>42</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="5"/>
+      <c r="D77" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>45</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="5"/>
+      <c r="D78" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>35</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="5"/>
+      <c r="D79" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>41</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>29</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="5"/>
+      <c r="D82" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>38</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="5"/>
+      <c r="D83" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>15</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="5"/>
+      <c r="D84" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>33</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>39</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="5"/>
+      <c r="D87" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>25</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="5"/>
+      <c r="D88" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>19</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="5"/>
+      <c r="D89" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="5"/>
+      <c r="D90" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>82</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="5"/>
+      <c r="D91" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>27</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="5"/>
+      <c r="D92" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>28</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="5"/>
+      <c r="D93" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="5"/>
+      <c r="D94" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>99</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="9"/>
+      <c r="D96" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>98</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="5"/>
+      <c r="D97" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="5"/>
+      <c r="D98" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>93</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="5"/>
+      <c r="D99" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D100">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E100">
     <sortCondition ref="B2:B100"/>
   </sortState>
   <hyperlinks>
@@ -11072,105 +11228,105 @@
     <hyperlink ref="B98" r:id="rId97" location="tract_owner_occupied_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_owner_occupied_units" xr:uid="{80E657EF-90C7-41BA-872E-CBB679B40722}"/>
     <hyperlink ref="B97" r:id="rId98" location="tract_one_to_four_family_homes" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_one_to_four_family_homes" xr:uid="{66DEA181-E183-45DC-B79A-5F0227B79087}"/>
     <hyperlink ref="B95" r:id="rId99" location="tract_median_age_of_housing_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_median_age_of_housing_units" xr:uid="{1E4876D8-E932-4723-8E85-4565976AA169}"/>
-    <hyperlink ref="C3" r:id="rId100" location="activity_year" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - activity_year" xr:uid="{11106FED-48F4-40B1-9047-76DB075521DC}"/>
-    <hyperlink ref="C68" r:id="rId101" location="lei" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - lei" xr:uid="{EB46B029-6782-4EC8-B1C7-3ED85060984A}"/>
-    <hyperlink ref="C57" r:id="rId102" location="derived_msa-md" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_msa-md" xr:uid="{C7D3E63C-C3CB-4548-A3A6-65329776E93E}"/>
-    <hyperlink ref="C90" r:id="rId103" location="state_code" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - state_code" xr:uid="{81F292D5-C9E0-4810-810B-F4CBE620426F}"/>
-    <hyperlink ref="C48" r:id="rId104" location="county_code" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - county_code" xr:uid="{7F317130-1EB3-45E5-BF2C-47BA1DA8A729}"/>
-    <hyperlink ref="C28" r:id="rId105" location="census_tract" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - census_tract" xr:uid="{D763A8D4-A693-488C-B483-A1657647FFCF}"/>
-    <hyperlink ref="C56" r:id="rId106" location="derived_loan_product_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_loan_product_type" xr:uid="{E8649159-9FC0-44DE-BF7B-2D278514E7E2}"/>
-    <hyperlink ref="C54" r:id="rId107" location="derived_dwelling_category" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_dwelling_category" xr:uid="{F835E61F-6D44-4EBE-B603-F3D6A185A010}"/>
-    <hyperlink ref="C46" r:id="rId108" location="conforming_loan_limit" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - conforming_loan_limit" xr:uid="{AFD251F8-6CA3-412E-9DF5-0B89E3E4743D}"/>
-    <hyperlink ref="C55" r:id="rId109" location="derived_ethnicity" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_ethnicity" xr:uid="{917F1CE9-0BD9-4B28-883D-8281F3D462CB}"/>
-    <hyperlink ref="C58" r:id="rId110" location="derived_race" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_race" xr:uid="{C80FC779-8D28-4E4C-BBC9-A3D6024DDF77}"/>
-    <hyperlink ref="C59" r:id="rId111" location="derived_sex" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_sex" xr:uid="{2CB38860-AC07-4173-B5E6-E05DCE32FF7F}"/>
-    <hyperlink ref="C2" r:id="rId112" location="action_taken" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - action_taken" xr:uid="{49651FE2-77D4-4BC1-A275-1CF26DD23BBB}"/>
-    <hyperlink ref="C87" r:id="rId113" location="purchaser_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - purchaser_type" xr:uid="{60D3818E-3311-4EAC-8E25-F15AE51172A5}"/>
-    <hyperlink ref="C84" r:id="rId114" location="preapproval" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - preapproval" xr:uid="{83387704-1E4D-496C-A650-85AA629FC301}"/>
-    <hyperlink ref="C75" r:id="rId115" location="loan_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_type" xr:uid="{D111A768-1CCB-473A-9EDA-3A27CB5E4551}"/>
-    <hyperlink ref="C72" r:id="rId116" location="loan_purpose" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_purpose" xr:uid="{AF97B4A1-C58A-48F2-8ECF-375E7FF8A821}"/>
-    <hyperlink ref="C70" r:id="rId117" location="lien_status" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - lien_status" xr:uid="{7092ED7B-1A44-4F3E-95FF-6851DD356E9F}"/>
-    <hyperlink ref="C89" r:id="rId118" location="reverse_mortgage" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - reverse_mortgage" xr:uid="{71768B30-E8E9-4BCB-BD8A-F762DEC2AD5C}"/>
-    <hyperlink ref="C81" r:id="rId119" location="open-end_line_of_credit" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - open-end_line_of_credit" xr:uid="{DDFCA24B-AB31-4734-892A-054AC7474C2F}"/>
-    <hyperlink ref="C27" r:id="rId120" location="business_or_commercial_purpose" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - business_or_commercial_purpose" xr:uid="{6441A33B-BFE8-4199-95B5-2CA68D109095}"/>
-    <hyperlink ref="C71" r:id="rId121" location="loan_amount" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_amount" xr:uid="{ABDB9967-4FA3-4703-8991-B9FE40998F26}"/>
-    <hyperlink ref="C74" r:id="rId122" location="loan_to_value_ratio" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_to_value_ratio" xr:uid="{5F32189E-D810-4F46-B4AA-32ACF7EDAE05}"/>
-    <hyperlink ref="C66" r:id="rId123" location="interest_rate" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - interest_rate" xr:uid="{56B63699-6D69-4D5C-8471-D1E4F63C889F}"/>
-    <hyperlink ref="C88" r:id="rId124" location="rate_spread" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - rate_spread" xr:uid="{F1A1C5C2-484A-4BF4-99DB-BE164C3E712E}"/>
-    <hyperlink ref="C62" r:id="rId125" location="hoepa_status" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - hoepa_status" xr:uid="{DB4F5FF9-C570-4B09-981A-4A00CB8D3691}"/>
-    <hyperlink ref="C92" r:id="rId126" location="total_loan_costs" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - total_loan_costs" xr:uid="{361BCADA-9BD0-4656-9C14-5F2A338F24F7}"/>
-    <hyperlink ref="C93" r:id="rId127" location="total_points_and_fees" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - total_points_and_fees" xr:uid="{FD10CE64-54CD-4506-8FE6-49937EACB1FC}"/>
-    <hyperlink ref="C82" r:id="rId128" location="origination_charges" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - origination_charges" xr:uid="{A373CD37-51AD-4283-A041-7401E7F28B3E}"/>
-    <hyperlink ref="C60" r:id="rId129" location="discount_points" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - discount_points" xr:uid="{53DB33E1-34EE-4B6B-9723-6E231AEB92C8}"/>
-    <hyperlink ref="C69" r:id="rId130" location="lender_credits" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - lender_credits" xr:uid="{E16D52B0-0583-4167-9622-C3755353CB2E}"/>
-    <hyperlink ref="C73" r:id="rId131" location="loan_term" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_term" xr:uid="{221D6443-2AD5-49E0-B440-50BBBAF2CDC3}"/>
-    <hyperlink ref="C85" r:id="rId132" location="prepayment_penalty_term" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - prepayment_penalty_term" xr:uid="{3FBA68C7-14FC-4494-A279-64210AF34426}"/>
-    <hyperlink ref="C67" r:id="rId133" location="intro_rate_period" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - intro_rate_period" xr:uid="{CD915779-2913-44E9-8717-F97F2C329DBD}"/>
-    <hyperlink ref="C79" r:id="rId134" location="negative_amortization" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - negative_amortization" xr:uid="{D19D3045-96A6-49ED-A636-86F9FC15B0C8}"/>
-    <hyperlink ref="C65" r:id="rId135" location="interest_only_payment" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - interest_only_payment" xr:uid="{01B4B27E-2B1D-4AC8-BA1D-86BAE283958A}"/>
-    <hyperlink ref="C26" r:id="rId136" location="balloon_payment" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - balloon_payment" xr:uid="{9ACCBBDD-4D6D-4708-817A-EA1D51939C5F}"/>
-    <hyperlink ref="C83" r:id="rId137" location="other_nonamortizing_features" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - other_nonamortizing_features" xr:uid="{C7CAEA2D-1CBA-4999-8053-C73B6178FCA9}"/>
-    <hyperlink ref="C86" r:id="rId138" location="property_value" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - property_value" xr:uid="{179D5181-FACF-426E-BE2D-A3EA035A486A}"/>
-    <hyperlink ref="C47" r:id="rId139" location="construction_method" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - construction_method" xr:uid="{B6FB3296-3C9B-4170-9590-A787AE1B5277}"/>
-    <hyperlink ref="C80" r:id="rId140" location="occupancy_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - occupancy_type" xr:uid="{7B6FD765-5C52-4F53-AD82-0A8300DB3155}"/>
-    <hyperlink ref="C77" r:id="rId141" location="manufactured_home_secured_property_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - manufactured_home_secured_property_type" xr:uid="{703078A1-6ACD-4AF1-AF10-7920465671EA}"/>
-    <hyperlink ref="C76" r:id="rId142" location="manufactured_home_land_property_interest" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - manufactured_home_land_property_interest" xr:uid="{E353D922-579F-45FD-A56F-955A6C1083D3}"/>
-    <hyperlink ref="C94" r:id="rId143" location="total_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - total_units" xr:uid="{ED86EAA6-BEA1-4B4C-8ED8-B9FCB0B976AF}"/>
-    <hyperlink ref="C78" r:id="rId144" location="multifamily_affordable_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - multifamily_affordable_units" xr:uid="{A22DB2EA-6C9F-4B22-85B0-0F5130BF8DB7}"/>
-    <hyperlink ref="C63" r:id="rId145" location="income" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - income" xr:uid="{AD838A22-E33D-4420-A5CD-807D9D6F02BC}"/>
-    <hyperlink ref="C49" r:id="rId146" location="debt_to_income_ratio" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - debt_to_income_ratio" xr:uid="{61A2F52B-0827-4B2E-8F9D-BDD2D722CF8B}"/>
-    <hyperlink ref="C6" r:id="rId147" location="applicant_credit_score_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_credit_score_type" xr:uid="{7EFE9113-9A2C-4672-AB93-881E4646DD8E}"/>
-    <hyperlink ref="C31" r:id="rId148" location="co-applicant_credit_score_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_credit_score_type" xr:uid="{C24800F0-715F-487A-ACDF-33DE43046F34}"/>
-    <hyperlink ref="C8" r:id="rId149" location="applicant_ethnicity-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-1" xr:uid="{DD810809-6E50-4C34-A8EA-37DB1414B253}"/>
-    <hyperlink ref="C9" r:id="rId150" location="applicant_ethnicity-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-2" xr:uid="{4E42DBC1-8512-4477-9C95-75D11D7C8C30}"/>
-    <hyperlink ref="C10" r:id="rId151" location="applicant_ethnicity-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-3" xr:uid="{EF7C92C8-F55C-4D61-AD2F-A5C5D22A35DF}"/>
-    <hyperlink ref="C11" r:id="rId152" location="applicant_ethnicity-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-4" xr:uid="{442E2C57-43A6-4B4F-98AE-C6B124ADD980}"/>
-    <hyperlink ref="C12" r:id="rId153" location="applicant_ethnicity-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-5" xr:uid="{A35AA310-6368-40C5-A459-C61032F610FE}"/>
-    <hyperlink ref="C33" r:id="rId154" location="co-applicant_ethnicity-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-1" xr:uid="{B5A7A768-C650-44F0-9434-464DFBFD80EE}"/>
-    <hyperlink ref="C34" r:id="rId155" location="co-applicant_ethnicity-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-2" xr:uid="{4105FED2-6C0D-43F2-9B42-15974519C71A}"/>
-    <hyperlink ref="C35" r:id="rId156" location="co-applicant_ethnicity-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-3" xr:uid="{0C386219-0AFD-4D15-8EAE-8EB19B9CA77D}"/>
-    <hyperlink ref="C36" r:id="rId157" location="co-applicant_ethnicity-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-4" xr:uid="{86C0BDAD-053A-4640-992B-0AE096EFA9C4}"/>
-    <hyperlink ref="C37" r:id="rId158" location="co-applicant_ethnicity-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-5" xr:uid="{FFFDAA35-A17F-4820-B6F9-4E31D10F883A}"/>
-    <hyperlink ref="C7" r:id="rId159" location="applicant_ethnicity_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity_observed" xr:uid="{151667BE-F0DB-450E-B1FA-33720A116F59}"/>
-    <hyperlink ref="C32" r:id="rId160" location="co-applicant_ethnicity_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity_observed" xr:uid="{0FD3D5EA-EFE4-4F28-B67E-D5479D3FCBAA}"/>
-    <hyperlink ref="C14" r:id="rId161" location="applicant_race-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-1" xr:uid="{FC2D1AA7-474A-4855-A895-C85DEC10B502}"/>
-    <hyperlink ref="C15" r:id="rId162" location="applicant_race-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-2" xr:uid="{8459ADB0-6601-4795-964D-2215BBE0F61F}"/>
-    <hyperlink ref="C16" r:id="rId163" location="applicant_race-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-3" xr:uid="{9A0A8AFB-72EA-4F0D-944A-F7F606BE3492}"/>
-    <hyperlink ref="C17" r:id="rId164" location="applicant_race-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-4" xr:uid="{1EF2A379-4C53-4817-A55A-BE04DB3EC959}"/>
-    <hyperlink ref="C18" r:id="rId165" location="applicant_race-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-5" xr:uid="{F929D8B9-FA84-4D18-B56D-100849B0DE24}"/>
-    <hyperlink ref="C39" r:id="rId166" location="co-applicant_race-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-1" xr:uid="{8DC09B85-5E22-4676-B535-A6AB63A24FE5}"/>
-    <hyperlink ref="C40" r:id="rId167" location="co-applicant_race-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-2" xr:uid="{0F6EEC12-061B-4686-B1B7-7592688AFAB6}"/>
-    <hyperlink ref="C41" r:id="rId168" location="co-applicant_race-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-3" xr:uid="{3A66B8CA-8BC1-4D40-AE26-7B086AD5ABF3}"/>
-    <hyperlink ref="C42" r:id="rId169" location="co-applicant_race-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-4" xr:uid="{C4A52304-B61A-4304-A57E-F6B5FBE616D1}"/>
-    <hyperlink ref="C43" r:id="rId170" location="co-applicant_race-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-5" xr:uid="{E6A7CAAE-630D-46D4-855A-C5CC14D5BE6A}"/>
-    <hyperlink ref="C13" r:id="rId171" location="applicant_race_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race_observed" xr:uid="{E65FBA00-488C-4638-8CA9-B255DB0291E9}"/>
-    <hyperlink ref="C38" r:id="rId172" location="co-applicant_race_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race_observed" xr:uid="{5E3E34F1-11C8-4DCE-8E26-C0176D670AC5}"/>
-    <hyperlink ref="C19" r:id="rId173" location="applicant_sex" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_sex" xr:uid="{780973C2-45AB-48CA-8065-74800E3373F9}"/>
-    <hyperlink ref="C44" r:id="rId174" location="co-applicant_sex" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_sex" xr:uid="{5B49C530-4156-4387-8935-551D54D730FF}"/>
-    <hyperlink ref="C20" r:id="rId175" location="applicant_sex_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_sex_observed" xr:uid="{9B40C753-36A5-42EC-87EF-7D5E34D7EFFF}"/>
-    <hyperlink ref="C45" r:id="rId176" location="co-applicant_sex_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_sex_observed" xr:uid="{6F17D3F6-439E-480C-99E0-B3326B53B67A}"/>
-    <hyperlink ref="C4" r:id="rId177" location="applicant_age" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_age" xr:uid="{FB581BCE-8385-4E3E-A71C-D208C08C0725}"/>
-    <hyperlink ref="C29" r:id="rId178" location="co-applicant_age" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_age" xr:uid="{88CDF871-550B-4068-B3EE-D893582109C4}"/>
-    <hyperlink ref="C5" r:id="rId179" location="applicant_age_above_62" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_age_above_62" xr:uid="{9242D07D-3C1D-4518-B6B0-99CF1A566FF4}"/>
-    <hyperlink ref="C30" r:id="rId180" location="co-applicant_age_above_62" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_age_above_62" xr:uid="{2A61F168-8834-480C-AFD0-3EFE5386E4A6}"/>
-    <hyperlink ref="C91" r:id="rId181" location="submission_of_application" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - submission_of_application" xr:uid="{A7257419-49F8-4836-B6EB-9D0B416A1D1B}"/>
-    <hyperlink ref="C64" r:id="rId182" location="initially_payable_to_institution" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - initially_payable_to_institution" xr:uid="{95A9D8C6-C67D-4776-9777-DE0188A7B166}"/>
-    <hyperlink ref="C21" r:id="rId183" location="aus-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-1" xr:uid="{09425E6E-3AD9-4943-8667-EFA4CAE38FAE}"/>
-    <hyperlink ref="C22" r:id="rId184" location="aus-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-2" xr:uid="{AE223A4B-906E-4696-A722-5F3AB08FE969}"/>
-    <hyperlink ref="C23" r:id="rId185" location="aus-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-3" xr:uid="{A8F3AD7C-BD1E-44D3-950F-45C12241B195}"/>
-    <hyperlink ref="C24" r:id="rId186" location="aus-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-4" xr:uid="{28E93E31-EBA2-489D-AC30-CCC96A5D8655}"/>
-    <hyperlink ref="C25" r:id="rId187" location="aus-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-5" xr:uid="{BFAA0730-34CD-49D4-B46A-892E93F693E9}"/>
-    <hyperlink ref="C50" r:id="rId188" location="denial_reason-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - denial_reason-1" xr:uid="{7E29EF6F-6260-4BEA-A82A-F6098747F645}"/>
-    <hyperlink ref="C51" r:id="rId189" location="denial_reason-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - denial_reason-2" xr:uid="{32DB5A68-FC97-407F-868D-B28436C61309}"/>
-    <hyperlink ref="C52" r:id="rId190" location="denial_reason-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - denial_reason-3" xr:uid="{DDBC6010-2730-4548-ABF8-E7989ABEE2DA}"/>
-    <hyperlink ref="C53" r:id="rId191" location="denial_reason-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - denial_reason-4" xr:uid="{21B17D22-A790-4AAE-BA34-0F7295ACD5C1}"/>
-    <hyperlink ref="C99" r:id="rId192" location="tract_population" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_population" xr:uid="{7D2B741B-49FA-48C5-B2FF-85E8DBFEEE58}"/>
-    <hyperlink ref="C96" r:id="rId193" location="tract_minority_population_percent" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_minority_population_percent" xr:uid="{0ED999F1-948E-4A36-B04D-3403A69A166D}"/>
-    <hyperlink ref="C61" r:id="rId194" location="ffiec_msa_md_median_family_income" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - ffiec_msa_md_median_family_income" xr:uid="{D4897436-0241-4834-8E6F-67196BD431F5}"/>
-    <hyperlink ref="C100" r:id="rId195" location="tract_to_msa_income_percentage" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_to_msa_income_percentage" xr:uid="{9A3214E5-04FC-44EF-9E1E-8E01DA5830CD}"/>
-    <hyperlink ref="C98" r:id="rId196" location="tract_owner_occupied_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_owner_occupied_units" xr:uid="{4B100EA2-370C-4F2F-8091-7B15233687F3}"/>
-    <hyperlink ref="C97" r:id="rId197" location="tract_one_to_four_family_homes" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_one_to_four_family_homes" xr:uid="{4AD60AC3-29C4-4D60-83CA-D2D53293C4ED}"/>
-    <hyperlink ref="C95" r:id="rId198" location="tract_median_age_of_housing_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_median_age_of_housing_units" xr:uid="{B2560DD3-27D4-49AA-A1CA-A7203934C5D8}"/>
+    <hyperlink ref="D3" r:id="rId100" location="activity_year" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - activity_year" xr:uid="{11106FED-48F4-40B1-9047-76DB075521DC}"/>
+    <hyperlink ref="D68" r:id="rId101" location="lei" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - lei" xr:uid="{EB46B029-6782-4EC8-B1C7-3ED85060984A}"/>
+    <hyperlink ref="D57" r:id="rId102" location="derived_msa-md" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_msa-md" xr:uid="{C7D3E63C-C3CB-4548-A3A6-65329776E93E}"/>
+    <hyperlink ref="D90" r:id="rId103" location="state_code" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - state_code" xr:uid="{81F292D5-C9E0-4810-810B-F4CBE620426F}"/>
+    <hyperlink ref="D48" r:id="rId104" location="county_code" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - county_code" xr:uid="{7F317130-1EB3-45E5-BF2C-47BA1DA8A729}"/>
+    <hyperlink ref="D28" r:id="rId105" location="census_tract" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - census_tract" xr:uid="{D763A8D4-A693-488C-B483-A1657647FFCF}"/>
+    <hyperlink ref="D56" r:id="rId106" location="derived_loan_product_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_loan_product_type" xr:uid="{E8649159-9FC0-44DE-BF7B-2D278514E7E2}"/>
+    <hyperlink ref="D54" r:id="rId107" location="derived_dwelling_category" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_dwelling_category" xr:uid="{F835E61F-6D44-4EBE-B603-F3D6A185A010}"/>
+    <hyperlink ref="D46" r:id="rId108" location="conforming_loan_limit" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - conforming_loan_limit" xr:uid="{AFD251F8-6CA3-412E-9DF5-0B89E3E4743D}"/>
+    <hyperlink ref="D55" r:id="rId109" location="derived_ethnicity" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_ethnicity" xr:uid="{917F1CE9-0BD9-4B28-883D-8281F3D462CB}"/>
+    <hyperlink ref="D58" r:id="rId110" location="derived_race" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_race" xr:uid="{C80FC779-8D28-4E4C-BBC9-A3D6024DDF77}"/>
+    <hyperlink ref="D59" r:id="rId111" location="derived_sex" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - derived_sex" xr:uid="{2CB38860-AC07-4173-B5E6-E05DCE32FF7F}"/>
+    <hyperlink ref="D2" r:id="rId112" location="action_taken" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - action_taken" xr:uid="{49651FE2-77D4-4BC1-A275-1CF26DD23BBB}"/>
+    <hyperlink ref="D87" r:id="rId113" location="purchaser_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - purchaser_type" xr:uid="{60D3818E-3311-4EAC-8E25-F15AE51172A5}"/>
+    <hyperlink ref="D84" r:id="rId114" location="preapproval" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - preapproval" xr:uid="{83387704-1E4D-496C-A650-85AA629FC301}"/>
+    <hyperlink ref="D75" r:id="rId115" location="loan_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_type" xr:uid="{D111A768-1CCB-473A-9EDA-3A27CB5E4551}"/>
+    <hyperlink ref="D72" r:id="rId116" location="loan_purpose" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_purpose" xr:uid="{AF97B4A1-C58A-48F2-8ECF-375E7FF8A821}"/>
+    <hyperlink ref="D70" r:id="rId117" location="lien_status" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - lien_status" xr:uid="{7092ED7B-1A44-4F3E-95FF-6851DD356E9F}"/>
+    <hyperlink ref="D89" r:id="rId118" location="reverse_mortgage" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - reverse_mortgage" xr:uid="{71768B30-E8E9-4BCB-BD8A-F762DEC2AD5C}"/>
+    <hyperlink ref="D81" r:id="rId119" location="open-end_line_of_credit" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - open-end_line_of_credit" xr:uid="{DDFCA24B-AB31-4734-892A-054AC7474C2F}"/>
+    <hyperlink ref="D27" r:id="rId120" location="business_or_commercial_purpose" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - business_or_commercial_purpose" xr:uid="{6441A33B-BFE8-4199-95B5-2CA68D109095}"/>
+    <hyperlink ref="D71" r:id="rId121" location="loan_amount" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_amount" xr:uid="{ABDB9967-4FA3-4703-8991-B9FE40998F26}"/>
+    <hyperlink ref="D74" r:id="rId122" location="loan_to_value_ratio" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_to_value_ratio" xr:uid="{5F32189E-D810-4F46-B4AA-32ACF7EDAE05}"/>
+    <hyperlink ref="D66" r:id="rId123" location="interest_rate" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - interest_rate" xr:uid="{56B63699-6D69-4D5C-8471-D1E4F63C889F}"/>
+    <hyperlink ref="D88" r:id="rId124" location="rate_spread" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - rate_spread" xr:uid="{F1A1C5C2-484A-4BF4-99DB-BE164C3E712E}"/>
+    <hyperlink ref="D62" r:id="rId125" location="hoepa_status" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - hoepa_status" xr:uid="{DB4F5FF9-C570-4B09-981A-4A00CB8D3691}"/>
+    <hyperlink ref="D92" r:id="rId126" location="total_loan_costs" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - total_loan_costs" xr:uid="{361BCADA-9BD0-4656-9C14-5F2A338F24F7}"/>
+    <hyperlink ref="D93" r:id="rId127" location="total_points_and_fees" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - total_points_and_fees" xr:uid="{FD10CE64-54CD-4506-8FE6-49937EACB1FC}"/>
+    <hyperlink ref="D82" r:id="rId128" location="origination_charges" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - origination_charges" xr:uid="{A373CD37-51AD-4283-A041-7401E7F28B3E}"/>
+    <hyperlink ref="D60" r:id="rId129" location="discount_points" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - discount_points" xr:uid="{53DB33E1-34EE-4B6B-9723-6E231AEB92C8}"/>
+    <hyperlink ref="D69" r:id="rId130" location="lender_credits" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - lender_credits" xr:uid="{E16D52B0-0583-4167-9622-C3755353CB2E}"/>
+    <hyperlink ref="D73" r:id="rId131" location="loan_term" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - loan_term" xr:uid="{221D6443-2AD5-49E0-B440-50BBBAF2CDC3}"/>
+    <hyperlink ref="D85" r:id="rId132" location="prepayment_penalty_term" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - prepayment_penalty_term" xr:uid="{3FBA68C7-14FC-4494-A279-64210AF34426}"/>
+    <hyperlink ref="D67" r:id="rId133" location="intro_rate_period" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - intro_rate_period" xr:uid="{CD915779-2913-44E9-8717-F97F2C329DBD}"/>
+    <hyperlink ref="D79" r:id="rId134" location="negative_amortization" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - negative_amortization" xr:uid="{D19D3045-96A6-49ED-A636-86F9FC15B0C8}"/>
+    <hyperlink ref="D65" r:id="rId135" location="interest_only_payment" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - interest_only_payment" xr:uid="{01B4B27E-2B1D-4AC8-BA1D-86BAE283958A}"/>
+    <hyperlink ref="D26" r:id="rId136" location="balloon_payment" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - balloon_payment" xr:uid="{9ACCBBDD-4D6D-4708-817A-EA1D51939C5F}"/>
+    <hyperlink ref="D83" r:id="rId137" location="other_nonamortizing_features" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - other_nonamortizing_features" xr:uid="{C7CAEA2D-1CBA-4999-8053-C73B6178FCA9}"/>
+    <hyperlink ref="D86" r:id="rId138" location="property_value" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - property_value" xr:uid="{179D5181-FACF-426E-BE2D-A3EA035A486A}"/>
+    <hyperlink ref="D47" r:id="rId139" location="construction_method" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - construction_method" xr:uid="{B6FB3296-3C9B-4170-9590-A787AE1B5277}"/>
+    <hyperlink ref="D80" r:id="rId140" location="occupancy_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - occupancy_type" xr:uid="{7B6FD765-5C52-4F53-AD82-0A8300DB3155}"/>
+    <hyperlink ref="D77" r:id="rId141" location="manufactured_home_secured_property_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - manufactured_home_secured_property_type" xr:uid="{703078A1-6ACD-4AF1-AF10-7920465671EA}"/>
+    <hyperlink ref="D76" r:id="rId142" location="manufactured_home_land_property_interest" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - manufactured_home_land_property_interest" xr:uid="{E353D922-579F-45FD-A56F-955A6C1083D3}"/>
+    <hyperlink ref="D94" r:id="rId143" location="total_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - total_units" xr:uid="{ED86EAA6-BEA1-4B4C-8ED8-B9FCB0B976AF}"/>
+    <hyperlink ref="D78" r:id="rId144" location="multifamily_affordable_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - multifamily_affordable_units" xr:uid="{A22DB2EA-6C9F-4B22-85B0-0F5130BF8DB7}"/>
+    <hyperlink ref="D63" r:id="rId145" location="income" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - income" xr:uid="{AD838A22-E33D-4420-A5CD-807D9D6F02BC}"/>
+    <hyperlink ref="D49" r:id="rId146" location="debt_to_income_ratio" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - debt_to_income_ratio" xr:uid="{61A2F52B-0827-4B2E-8F9D-BDD2D722CF8B}"/>
+    <hyperlink ref="D6" r:id="rId147" location="applicant_credit_score_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_credit_score_type" xr:uid="{7EFE9113-9A2C-4672-AB93-881E4646DD8E}"/>
+    <hyperlink ref="D31" r:id="rId148" location="co-applicant_credit_score_type" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_credit_score_type" xr:uid="{C24800F0-715F-487A-ACDF-33DE43046F34}"/>
+    <hyperlink ref="D8" r:id="rId149" location="applicant_ethnicity-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-1" xr:uid="{DD810809-6E50-4C34-A8EA-37DB1414B253}"/>
+    <hyperlink ref="D9" r:id="rId150" location="applicant_ethnicity-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-2" xr:uid="{4E42DBC1-8512-4477-9C95-75D11D7C8C30}"/>
+    <hyperlink ref="D10" r:id="rId151" location="applicant_ethnicity-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-3" xr:uid="{EF7C92C8-F55C-4D61-AD2F-A5C5D22A35DF}"/>
+    <hyperlink ref="D11" r:id="rId152" location="applicant_ethnicity-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-4" xr:uid="{442E2C57-43A6-4B4F-98AE-C6B124ADD980}"/>
+    <hyperlink ref="D12" r:id="rId153" location="applicant_ethnicity-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity-5" xr:uid="{A35AA310-6368-40C5-A459-C61032F610FE}"/>
+    <hyperlink ref="D33" r:id="rId154" location="co-applicant_ethnicity-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-1" xr:uid="{B5A7A768-C650-44F0-9434-464DFBFD80EE}"/>
+    <hyperlink ref="D34" r:id="rId155" location="co-applicant_ethnicity-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-2" xr:uid="{4105FED2-6C0D-43F2-9B42-15974519C71A}"/>
+    <hyperlink ref="D35" r:id="rId156" location="co-applicant_ethnicity-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-3" xr:uid="{0C386219-0AFD-4D15-8EAE-8EB19B9CA77D}"/>
+    <hyperlink ref="D36" r:id="rId157" location="co-applicant_ethnicity-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-4" xr:uid="{86C0BDAD-053A-4640-992B-0AE096EFA9C4}"/>
+    <hyperlink ref="D37" r:id="rId158" location="co-applicant_ethnicity-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity-5" xr:uid="{FFFDAA35-A17F-4820-B6F9-4E31D10F883A}"/>
+    <hyperlink ref="D7" r:id="rId159" location="applicant_ethnicity_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_ethnicity_observed" xr:uid="{151667BE-F0DB-450E-B1FA-33720A116F59}"/>
+    <hyperlink ref="D32" r:id="rId160" location="co-applicant_ethnicity_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_ethnicity_observed" xr:uid="{0FD3D5EA-EFE4-4F28-B67E-D5479D3FCBAA}"/>
+    <hyperlink ref="D14" r:id="rId161" location="applicant_race-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-1" xr:uid="{FC2D1AA7-474A-4855-A895-C85DEC10B502}"/>
+    <hyperlink ref="D15" r:id="rId162" location="applicant_race-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-2" xr:uid="{8459ADB0-6601-4795-964D-2215BBE0F61F}"/>
+    <hyperlink ref="D16" r:id="rId163" location="applicant_race-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-3" xr:uid="{9A0A8AFB-72EA-4F0D-944A-F7F606BE3492}"/>
+    <hyperlink ref="D17" r:id="rId164" location="applicant_race-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-4" xr:uid="{1EF2A379-4C53-4817-A55A-BE04DB3EC959}"/>
+    <hyperlink ref="D18" r:id="rId165" location="applicant_race-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race-5" xr:uid="{F929D8B9-FA84-4D18-B56D-100849B0DE24}"/>
+    <hyperlink ref="D39" r:id="rId166" location="co-applicant_race-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-1" xr:uid="{8DC09B85-5E22-4676-B535-A6AB63A24FE5}"/>
+    <hyperlink ref="D40" r:id="rId167" location="co-applicant_race-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-2" xr:uid="{0F6EEC12-061B-4686-B1B7-7592688AFAB6}"/>
+    <hyperlink ref="D41" r:id="rId168" location="co-applicant_race-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-3" xr:uid="{3A66B8CA-8BC1-4D40-AE26-7B086AD5ABF3}"/>
+    <hyperlink ref="D42" r:id="rId169" location="co-applicant_race-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-4" xr:uid="{C4A52304-B61A-4304-A57E-F6B5FBE616D1}"/>
+    <hyperlink ref="D43" r:id="rId170" location="co-applicant_race-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race-5" xr:uid="{E6A7CAAE-630D-46D4-855A-C5CC14D5BE6A}"/>
+    <hyperlink ref="D13" r:id="rId171" location="applicant_race_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_race_observed" xr:uid="{E65FBA00-488C-4638-8CA9-B255DB0291E9}"/>
+    <hyperlink ref="D38" r:id="rId172" location="co-applicant_race_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_race_observed" xr:uid="{5E3E34F1-11C8-4DCE-8E26-C0176D670AC5}"/>
+    <hyperlink ref="D19" r:id="rId173" location="applicant_sex" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_sex" xr:uid="{780973C2-45AB-48CA-8065-74800E3373F9}"/>
+    <hyperlink ref="D44" r:id="rId174" location="co-applicant_sex" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_sex" xr:uid="{5B49C530-4156-4387-8935-551D54D730FF}"/>
+    <hyperlink ref="D20" r:id="rId175" location="applicant_sex_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_sex_observed" xr:uid="{9B40C753-36A5-42EC-87EF-7D5E34D7EFFF}"/>
+    <hyperlink ref="D45" r:id="rId176" location="co-applicant_sex_observed" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_sex_observed" xr:uid="{6F17D3F6-439E-480C-99E0-B3326B53B67A}"/>
+    <hyperlink ref="D4" r:id="rId177" location="applicant_age" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_age" xr:uid="{FB581BCE-8385-4E3E-A71C-D208C08C0725}"/>
+    <hyperlink ref="D29" r:id="rId178" location="co-applicant_age" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_age" xr:uid="{88CDF871-550B-4068-B3EE-D893582109C4}"/>
+    <hyperlink ref="D5" r:id="rId179" location="applicant_age_above_62" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - applicant_age_above_62" xr:uid="{9242D07D-3C1D-4518-B6B0-99CF1A566FF4}"/>
+    <hyperlink ref="D30" r:id="rId180" location="co-applicant_age_above_62" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - co-applicant_age_above_62" xr:uid="{2A61F168-8834-480C-AFD0-3EFE5386E4A6}"/>
+    <hyperlink ref="D91" r:id="rId181" location="submission_of_application" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - submission_of_application" xr:uid="{A7257419-49F8-4836-B6EB-9D0B416A1D1B}"/>
+    <hyperlink ref="D64" r:id="rId182" location="initially_payable_to_institution" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - initially_payable_to_institution" xr:uid="{95A9D8C6-C67D-4776-9777-DE0188A7B166}"/>
+    <hyperlink ref="D21" r:id="rId183" location="aus-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-1" xr:uid="{09425E6E-3AD9-4943-8667-EFA4CAE38FAE}"/>
+    <hyperlink ref="D22" r:id="rId184" location="aus-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-2" xr:uid="{AE223A4B-906E-4696-A722-5F3AB08FE969}"/>
+    <hyperlink ref="D23" r:id="rId185" location="aus-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-3" xr:uid="{A8F3AD7C-BD1E-44D3-950F-45C12241B195}"/>
+    <hyperlink ref="D24" r:id="rId186" location="aus-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-4" xr:uid="{28E93E31-EBA2-489D-AC30-CCC96A5D8655}"/>
+    <hyperlink ref="D25" r:id="rId187" location="aus-5" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - aus-5" xr:uid="{BFAA0730-34CD-49D4-B46A-892E93F693E9}"/>
+    <hyperlink ref="D50" r:id="rId188" location="denial_reason-1" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - denial_reason-1" xr:uid="{7E29EF6F-6260-4BEA-A82A-F6098747F645}"/>
+    <hyperlink ref="D51" r:id="rId189" location="denial_reason-2" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - denial_reason-2" xr:uid="{32DB5A68-FC97-407F-868D-B28436C61309}"/>
+    <hyperlink ref="D52" r:id="rId190" location="denial_reason-3" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - denial_reason-3" xr:uid="{DDBC6010-2730-4548-ABF8-E7989ABEE2DA}"/>
+    <hyperlink ref="D53" r:id="rId191" location="denial_reason-4" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - denial_reason-4" xr:uid="{21B17D22-A790-4AAE-BA34-0F7295ACD5C1}"/>
+    <hyperlink ref="D99" r:id="rId192" location="tract_population" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_population" xr:uid="{7D2B741B-49FA-48C5-B2FF-85E8DBFEEE58}"/>
+    <hyperlink ref="D96" r:id="rId193" location="tract_minority_population_percent" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_minority_population_percent" xr:uid="{0ED999F1-948E-4A36-B04D-3403A69A166D}"/>
+    <hyperlink ref="D61" r:id="rId194" location="ffiec_msa_md_median_family_income" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - ffiec_msa_md_median_family_income" xr:uid="{D4897436-0241-4834-8E6F-67196BD431F5}"/>
+    <hyperlink ref="D100" r:id="rId195" location="tract_to_msa_income_percentage" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_to_msa_income_percentage" xr:uid="{9A3214E5-04FC-44EF-9E1E-8E01DA5830CD}"/>
+    <hyperlink ref="D98" r:id="rId196" location="tract_owner_occupied_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_owner_occupied_units" xr:uid="{4B100EA2-370C-4F2F-8091-7B15233687F3}"/>
+    <hyperlink ref="D97" r:id="rId197" location="tract_one_to_four_family_homes" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_one_to_four_family_homes" xr:uid="{4AD60AC3-29C4-4D60-83CA-D2D53293C4ED}"/>
+    <hyperlink ref="D95" r:id="rId198" location="tract_median_age_of_housing_units" display="https://ffiec.cfpb.gov/documentation/2018/lar-data-fields/ - tract_median_age_of_housing_units" xr:uid="{B2560DD3-27D4-49AA-A1CA-A7203934C5D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
